--- a/Steel.xlsx
+++ b/Steel.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SBTi\github\pathway-database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SBTi\github\pathway-database\pathway-database\pathway-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15DEF2A-529D-4F8E-AF15-00B110A4E749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F6AEDE-2AEA-41EE-9341-1DD8E85900A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D5D61576-F3AF-4017-A1B5-6E9A326A3480}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{D5D61576-F3AF-4017-A1B5-6E9A326A3480}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
   <si>
     <t>Scenario</t>
   </si>
@@ -79,13 +80,40 @@
   </si>
   <si>
     <t>Metric</t>
+  </si>
+  <si>
+    <t>Steel production is responsible for about 8% of global energy-related CO₂ emissions, mainly due to the use of coal in blast furnaces. Despite improvements in recycling and efficiency, global emissions are falling by just 0.7% per year, far below the 3–4% annual cuts needed to align with a Net Zero by 2050 scenario. Achieving deep reductions will require scaling up green hydrogen-based direct reduced iron (DRI), expanding electric arc furnace (EAF) use, and accelerating the shift to low-carbon electricity and circular materials.</t>
+  </si>
+  <si>
+    <t>Impact and Outcome Metrics</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>IEA, 2023</t>
+  </si>
+  <si>
+    <t>Share of near zero emission iron proudction</t>
+  </si>
+  <si>
+    <t>Share of electrolytic hydrogen-based iron production</t>
+  </si>
+  <si>
+    <t>Share of CCUS-equiped iron production</t>
+  </si>
+  <si>
+    <t>Share of iron ore electrolysis iron production</t>
+  </si>
+  <si>
+    <t>Share of scrap in metallic inputs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,8 +132,30 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Seaford"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Seaford"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Seaford"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Seaford"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,8 +168,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -138,11 +194,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -157,6 +233,30 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,7 +573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9427189-BF77-4B9E-896C-D853AAE204F3}">
   <dimension ref="A1:AN10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1705,4 +1805,282 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3079F7B2-FA0F-45FA-9EE1-55D90BD2733C}">
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="58.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="7">
+        <v>2022</v>
+      </c>
+      <c r="C2" s="7">
+        <v>2030</v>
+      </c>
+      <c r="D2" s="7">
+        <v>2035</v>
+      </c>
+      <c r="E2" s="8">
+        <v>2040</v>
+      </c>
+      <c r="F2" s="7">
+        <v>2050</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="11">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0.27</v>
+      </c>
+      <c r="E3" s="11">
+        <f>AVERAGE(D3,F3)</f>
+        <v>0.61</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="11">
+        <f>AVERAGE(D4,F4)</f>
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0.37</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="11">
+        <v>0</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="E5" s="11">
+        <f t="shared" ref="E5:E7" si="0">AVERAGE(D5,F5)</f>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0.44</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="11">
+        <v>0</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="E6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="15">
+        <v>0.33</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.38</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="E7" s="15">
+        <f t="shared" si="0"/>
+        <v>0.44</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0.48</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Steel.xlsx
+++ b/Steel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SBTi\github\pathway-database\pathway-database\pathway-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F6AEDE-2AEA-41EE-9341-1DD8E85900A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725DE4A8-D458-40B5-90DC-B7B7B20CFA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{D5D61576-F3AF-4017-A1B5-6E9A326A3480}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D5D61576-F3AF-4017-A1B5-6E9A326A3480}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -233,9 +233,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -257,6 +254,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,7 +573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9427189-BF77-4B9E-896C-D853AAE204F3}">
   <dimension ref="A1:AN10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1811,7 +1811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3079F7B2-FA0F-45FA-9EE1-55D90BD2733C}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -1821,261 +1821,261 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>2022</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>2030</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>2035</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>2040</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>2050</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>0</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>0.08</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>0.27</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <f>AVERAGE(D3,F3)</f>
         <v>0.61</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>0.95</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>0</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>0.03</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>0.1</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <f>AVERAGE(D4,F4)</f>
         <v>0.23499999999999999</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>0.37</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>0</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>0.05</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>0.15</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <f t="shared" ref="E5:E7" si="0">AVERAGE(D5,F5)</f>
         <v>0.29499999999999998</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>0.44</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>0</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>0</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>0.02</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>0.33</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>0.38</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>0.4</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <f t="shared" si="0"/>
         <v>0.44</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>0.48</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
